--- a/data/trans_camb/P3A_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 1,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 0,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 4,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 2,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 0,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 3,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 1,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 0,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 2,95</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,1%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,05; 88,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,81; 58,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,83; 237,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,61; 307,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,03; 158,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,9; 378,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,02; 72,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,11; 33,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,93; 174,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 0,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,27; -1,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,03; 0,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 1,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 0,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 0,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,89; 0,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; -0,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; -0,32</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,41%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,73; 26,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -46,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 55,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,32; 148,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,11; 91,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 57,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,59; 12,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,09; -31,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,21; 3,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,42; -0,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; -2,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,69; -1,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 1,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 0,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; -0,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 0,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; -1,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; -1,1</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,14%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,31; -12,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,99; -59,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,1; -31,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,97; 104,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,29; 18,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,01; 3,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,68; 7,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,07; -49,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,42; -33,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 0,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; -1,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,77; 0,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 2,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 0,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 2,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 1,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; -0,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 0,83</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,7%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,43%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,2%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,97%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,22; 38,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,05; -30,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,72; 5,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,09; 298,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,32; 67,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,0; 208,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,51; 60,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,2; -24,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,07; 36,04</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 2,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 3,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 2,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 4,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 1,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 2,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 2,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 1,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 1,81</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,22%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,84%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,46%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,55%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,02%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,5%</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,92; 113,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,03; 172,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,92; 105,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,35; 391,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,21; 128,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,32; 213,71</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,99; 155,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,71; 86,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,61; 95,39</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 6,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,9; 0,71</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 6,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 2,61</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,78; 1,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,12; 2,63</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 3,3</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 0,58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 3,55</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,51%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,29%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>129,34%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,36%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,83%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,01%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,05%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,49%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,43; 380,52</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,76; 61,49</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,78; 392,17</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,79; 78,7</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,69; 40,74</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,56; 56,64</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,08; 101,33</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,37; 20,52</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,06; 103,75</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,51</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,69</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 14,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 9,99</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,01; 18,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 14,31</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 9,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,78; 21,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,61; 12,47</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 7,97</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,16; 19,51</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,35%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,99%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,56%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>167,76%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,22%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,39; 226,77</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,52; 153,18</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,56; 300,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,69; 176,14</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 128,71</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,98; 284,44</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,9; 156,4</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 100,68</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>98,96; 254,59</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 0,78</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; -0,78</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 1,24</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 2,34</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 0,85</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 3,12</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 1,32</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; -0,22</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 1,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-5,41%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-39,97%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>44,51%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-4,09%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>70,03%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-23,94%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>35,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>-26,62; 22,06</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>-53,62; -20,36</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-21,25; 33,77</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>13,0; 85,3</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-25,83; 32,47</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>27,64; 113,75</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 38,92</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>-36,96; -6,87</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 59,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P3A_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,4</t>
+          <t>-2,55; 1,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,65</t>
+          <t>-3,03; 0,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,48</t>
+          <t>-2,46; 4,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,15</t>
+          <t>-1,35; 2,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,84</t>
+          <t>-2,05; 0,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 3,13</t>
+          <t>-1,53; 2,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,18</t>
+          <t>-1,36; 1,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,44</t>
+          <t>-2,08; 0,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,95</t>
+          <t>-1,49; 2,72</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,05; 88,06</t>
+          <t>-64,38; 102,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-77,81; 58,01</t>
+          <t>-79,78; 49,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,83; 237,31</t>
+          <t>-77,21; 208,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,61; 307,01</t>
+          <t>-66,6; 279,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-88,03; 158,31</t>
+          <t>-87,85; 136,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,9; 378,04</t>
+          <t>-78,77; 280,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,02; 72,93</t>
+          <t>-50,18; 83,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,11; 33,87</t>
+          <t>-71,36; 27,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-53,93; 174,65</t>
+          <t>-57,85; 140,24</t>
         </is>
       </c>
     </row>
@@ -901,37 +901,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,44</t>
+          <t>-3,12; 0,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -1,37</t>
+          <t>-4,24; -1,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,55</t>
+          <t>-3,88; 0,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,42</t>
+          <t>-1,51; 1,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,94</t>
+          <t>-1,93; 0,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,36</t>
+          <t>-2,44; 0,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,22</t>
+          <t>-1,87; 0,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; -0,32</t>
+          <t>-2,87; -0,49</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-73,73; 26,07</t>
+          <t>-74,07; 19,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -46,25</t>
+          <t>-100,0; -45,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 55,85</t>
+          <t>-100,0; 61,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 148,02</t>
+          <t>-61,48; 150,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,11; 91,96</t>
+          <t>-75,92; 83,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 57,06</t>
+          <t>-91,92; 89,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,59; 12,6</t>
+          <t>-60,19; 19,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-85,09; -31,1</t>
+          <t>-85,55; -33,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-92,21; 3,17</t>
+          <t>-92,6; -7,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; -0,67</t>
+          <t>-4,98; -0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -2,54</t>
+          <t>-6,3; -2,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; -1,49</t>
+          <t>-5,5; -1,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,68</t>
+          <t>-1,74; 1,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,12</t>
+          <t>-2,86; 0,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; -0,18</t>
+          <t>-2,79; -0,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 0,17</t>
+          <t>-2,64; 0,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -1,58</t>
+          <t>-4,01; -1,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; -1,1</t>
+          <t>-3,6; -1,08</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-78,31; -12,41</t>
+          <t>-77,73; -13,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-92,99; -59,09</t>
+          <t>-92,01; -58,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,1; -31,84</t>
+          <t>-84,81; -30,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,97; 104,57</t>
+          <t>-56,0; 107,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-87,29; 18,95</t>
+          <t>-85,93; 15,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-83,01; 3,78</t>
+          <t>-82,17; -1,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-58,68; 7,08</t>
+          <t>-60,39; 7,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-86,07; -49,44</t>
+          <t>-85,72; -50,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-79,42; -33,08</t>
+          <t>-79,65; -33,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 0,95</t>
+          <t>-3,55; 1,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,03; -1,04</t>
+          <t>-5,25; -1,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 0,22</t>
+          <t>-4,65; 0,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,85</t>
+          <t>-1,0; 3,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 0,6</t>
+          <t>-2,46; 0,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,3</t>
+          <t>-0,79; 2,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,28</t>
+          <t>-1,74; 1,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; -0,6</t>
+          <t>-3,07; -0,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,83</t>
+          <t>-1,98; 0,93</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-68,22; 38,07</t>
+          <t>-66,11; 43,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-90,05; -30,16</t>
+          <t>-91,04; -35,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-83,72; 5,06</t>
+          <t>-81,54; 6,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-48,09; 298,15</t>
+          <t>-45,25; 307,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-82,32; 67,18</t>
+          <t>-81,78; 59,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 208,38</t>
+          <t>-29,74; 241,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-45,51; 60,03</t>
+          <t>-46,9; 68,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-80,2; -24,08</t>
+          <t>-79,23; -17,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,07; 36,04</t>
+          <t>-51,96; 42,8</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,11</t>
+          <t>-3,24; 1,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,27</t>
+          <t>-2,54; 3,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,16</t>
+          <t>-2,9; 2,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 4,9</t>
+          <t>-0,03; 4,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,19</t>
+          <t>-2,68; 1,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,21</t>
+          <t>-1,18; 2,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,82</t>
+          <t>-0,95; 2,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,57</t>
+          <t>-1,7; 1,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,81</t>
+          <t>-1,23; 1,72</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-62,92; 113,3</t>
+          <t>-65,34; 98,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 172,65</t>
+          <t>-53,24; 163,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-52,92; 105,53</t>
+          <t>-57,99; 102,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 391,08</t>
+          <t>-17,49; 412,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-77,21; 128,34</t>
+          <t>-80,27; 106,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,32; 213,71</t>
+          <t>-37,0; 231,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 155,16</t>
+          <t>-29,0; 148,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 86,04</t>
+          <t>-47,33; 87,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,61; 95,39</t>
+          <t>-34,51; 94,71</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 6,52</t>
+          <t>-0,43; 6,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 0,71</t>
+          <t>-3,98; 0,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,47</t>
+          <t>0,53; 6,57</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,61</t>
+          <t>-4,0; 2,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 1,51</t>
+          <t>-4,51; 1,69</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 2,63</t>
+          <t>-5,72; 2,94</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,3</t>
+          <t>-1,39; 3,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,58</t>
+          <t>-3,56; 0,39</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 3,55</t>
+          <t>-2,34; 3,39</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 380,52</t>
+          <t>-19,51; 396,9</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-86,76; 61,49</t>
+          <t>-87,97; 69,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8,78; 392,17</t>
+          <t>4,13; 450,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-57,79; 78,7</t>
+          <t>-57,07; 68,97</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 40,74</t>
+          <t>-64,52; 49,55</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-73,56; 56,64</t>
+          <t>-69,36; 64,3</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-28,08; 101,33</t>
+          <t>-28,29; 96,72</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-62,37; 20,52</t>
+          <t>-66,38; 13,75</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 103,75</t>
+          <t>-41,15; 92,84</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,11; 14,28</t>
+          <t>1,8; 14,24</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 9,99</t>
+          <t>-0,67; 10,26</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,01; 18,28</t>
+          <t>7,76; 18,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,48; 14,31</t>
+          <t>2,87; 13,82</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 9,8</t>
+          <t>-0,77; 10,16</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>12,78; 21,91</t>
+          <t>12,98; 22,29</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,61; 12,47</t>
+          <t>4,46; 12,66</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 7,97</t>
+          <t>0,31; 8,21</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,16; 19,51</t>
+          <t>12,12; 18,88</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>15,39; 226,77</t>
+          <t>14,05; 211,33</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 153,18</t>
+          <t>-7,02; 165,08</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>62,56; 300,67</t>
+          <t>59,29; 286,01</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>24,69; 176,14</t>
+          <t>22,18; 176,28</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 128,71</t>
+          <t>-8,67; 124,29</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>89,98; 284,44</t>
+          <t>93,29; 290,54</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>38,9; 156,4</t>
+          <t>36,85; 156,22</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 100,68</t>
+          <t>2,39; 104,48</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>98,96; 254,59</t>
+          <t>97,98; 242,67</t>
         </is>
       </c>
     </row>
@@ -2197,42 +2197,42 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,78</t>
+          <t>-1,26; 0,72</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,43; -0,78</t>
+          <t>-2,46; -0,68</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,24</t>
+          <t>-0,91; 1,44</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,34</t>
+          <t>0,48; 2,39</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,85</t>
+          <t>-1,03; 0,73</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,12</t>
+          <t>0,99; 3,13</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,32</t>
+          <t>-0,11; 1,33</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,42; -0,22</t>
+          <t>-1,46; -0,2</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 22,06</t>
+          <t>-27,67; 20,27</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-53,62; -20,36</t>
+          <t>-54,24; -19,28</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 33,77</t>
+          <t>-21,01; 39,43</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>13,0; 85,3</t>
+          <t>13,32; 86,73</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 32,47</t>
+          <t>-29,49; 27,08</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>27,64; 113,75</t>
+          <t>28,33; 115,71</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 38,92</t>
+          <t>-2,91; 41,31</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-36,96; -6,87</t>
+          <t>-37,78; -6,05</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>10,17; 59,87</t>
+          <t>10,23; 60,35</t>
         </is>
       </c>
     </row>
